--- a/江蘇慶鼎(淮安鵬鼎)/GOL-923VNW/SECS Data Collection Specification_v1.0_GOL-923VNW.xlsx
+++ b/江蘇慶鼎(淮安鵬鼎)/GOL-923VNW/SECS Data Collection Specification_v1.0_GOL-923VNW.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="421">
   <si>
     <t>Description</t>
   </si>
@@ -667,14 +667,6 @@
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
-    <t>Process Program Create</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>Process Program Delete</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
     <t>Process Program Modify</t>
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
@@ -683,30 +675,6 @@
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
-    <t>Panel Process Start</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>Panel Process End</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lot Process Start</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lot Process End</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>Recipe Setup Start</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>Recipe Setup End</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
     <t>+886-3-4851536</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -829,50 +797,6 @@
   </si>
   <si>
     <t>Control Mode Change</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>設備機況收集-機況</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>設備生產訊號收集-當前使用配方名變更訊號</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>設備生產訊號收集-新增配方名</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>設備生產訊號收集-刪除配方名</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>設備生產訊號收集-修改配方名</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>設備生產訊號收集-配方切換成功</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>設備生產訊號收集-Panel生產結束訊號</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>設備生產訊號收集-Lot生產開始訊號</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>設備生產訊號收集-Lot生產結束訊號</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>設備生產訊號收集-配方程式安裝開始</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>設備生產訊號收集-配方程式安裝結束</t>
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
@@ -957,10 +881,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>60001,60006</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>60001,60002</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -970,18 +890,6 @@
   </si>
   <si>
     <t>60001,60004</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>60001,60003,60004,60005</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>60001,60003,60004,60005</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>60001,60002,60003,60004,60005,60007</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -989,10 +897,6 @@
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
-    <t>设备生产讯号收集-信号灯状态</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
     <t>Date &amp; Time：YYMMDDHHMMSS</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1025,10 +929,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>60001,60005,60007</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>U2</t>
     <phoneticPr fontId="34" type="noConversion"/>
   </si>
@@ -1053,14 +953,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>設備生產訊號收集-開始進板</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>設備生產訊號收集-停止進板</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
     <t>STATUS</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1093,23 +985,11 @@
     <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
-    <t>1=Light On  2=Light Off</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1.29F</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">s </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>60001,60005,60007,60009</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>60001,60005,60007,60009</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1117,10 +997,6 @@
     <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
-    <t>設備生產訊號收集-UV燈使用模式</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
     <t>"START"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1365,10 +1241,6 @@
     <phoneticPr fontId="34" type="noConversion"/>
   </si>
   <si>
-    <t>設備生產訊號收集-Panel生產開始訊號</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
     <t>紧急停止异常</t>
   </si>
   <si>
@@ -1585,18 +1457,6 @@
   <si>
     <t>耗電量(KWH)</t>
     <phoneticPr fontId="34" type="noConversion"/>
-  </si>
-  <si>
-    <t>Process Abort</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Process Start</t>
-    <phoneticPr fontId="31" type="noConversion"/>
-  </si>
-  <si>
-    <t>Process End</t>
-    <phoneticPr fontId="31" type="noConversion"/>
   </si>
   <si>
     <t>GOL-923VNW</t>
@@ -1605,6 +1465,54 @@
   <si>
     <t>GOL-923VNW</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>設備機況收集-機況</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>設備模式變更</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>設備生產開始</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>設備生產結束</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>設備藍燈信號變更</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equipment Door Status</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>設備開門狀態變更</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>設備配方內容修改</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>設備更換目前使用配方</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>60001,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>60001,60004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1: 升溫 2: 恆溫 3: 冷卻 4: 生產結束 5: 手動模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1629,7 +1537,7 @@
         <xdr:cNvPr id="2" name="Picture 14" descr="F:\Quick共用資料夾\005_佩佩\001_Jedha\1731323197-s.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1685,7 +1593,7 @@
         <xdr:cNvPr id="3" name="文本框 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2006,7 +1914,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2035,18 +1943,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="159" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="158"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="151"/>
     </row>
     <row r="2" spans="1:11" ht="19.5" customHeight="1">
       <c r="A2" s="50" t="s">
@@ -2088,10 +1996,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>312</v>
+        <v>281</v>
       </c>
       <c r="E3" s="32"/>
       <c r="F3" s="32"/>
@@ -2113,10 +2021,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="E4" s="32"/>
       <c r="F4" s="32"/>
@@ -2138,19 +2046,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="E5" s="32"/>
       <c r="F5" s="32"/>
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
       <c r="I5" s="32" t="s">
-        <v>333</v>
-      </c>
-      <c r="J5" s="108"/>
+        <v>302</v>
+      </c>
+      <c r="J5" s="101"/>
       <c r="K5" s="88"/>
     </row>
     <row r="6" spans="1:11" ht="17.25">
@@ -2161,17 +2069,17 @@
         <v>4</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>334</v>
+        <v>303</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="E6" s="32"/>
       <c r="F6" s="32"/>
       <c r="G6" s="32"/>
       <c r="H6" s="32"/>
       <c r="I6" s="32"/>
-      <c r="J6" s="108"/>
+      <c r="J6" s="101"/>
       <c r="K6" s="88"/>
     </row>
     <row r="7" spans="1:11" ht="17.25">
@@ -2182,17 +2090,17 @@
         <v>5</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>365</v>
+        <v>334</v>
       </c>
       <c r="E7" s="32"/>
       <c r="F7" s="32"/>
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
       <c r="I7" s="32"/>
-      <c r="J7" s="108"/>
+      <c r="J7" s="101"/>
       <c r="K7" s="88"/>
     </row>
     <row r="8" spans="1:11" ht="17.25">
@@ -2203,17 +2111,17 @@
         <v>6</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>335</v>
+        <v>304</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="E8" s="32"/>
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
       <c r="H8" s="32"/>
       <c r="I8" s="32"/>
-      <c r="J8" s="108"/>
+      <c r="J8" s="101"/>
       <c r="K8" s="88"/>
     </row>
     <row r="9" spans="1:11" ht="17.25">
@@ -2224,10 +2132,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>327</v>
+        <v>296</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="32"/>
@@ -2245,10 +2153,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="E10" s="32"/>
       <c r="F10" s="32"/>
@@ -2266,10 +2174,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>329</v>
+        <v>298</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="E11" s="32"/>
       <c r="F11" s="32"/>
@@ -2287,10 +2195,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>330</v>
+        <v>299</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="E12" s="32"/>
       <c r="F12" s="32"/>
@@ -2308,10 +2216,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="E13" s="32"/>
       <c r="F13" s="32">
@@ -2333,10 +2241,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>339</v>
+        <v>308</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="32"/>
@@ -2354,10 +2262,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>340</v>
+        <v>309</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="E15" s="32"/>
       <c r="F15" s="32"/>
@@ -2375,10 +2283,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="E16" s="32"/>
       <c r="F16" s="32"/>
@@ -2396,10 +2304,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
@@ -2417,10 +2325,10 @@
         <v>16</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>343</v>
+        <v>312</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
@@ -2438,10 +2346,10 @@
         <v>17</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>344</v>
+        <v>313</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>312</v>
+        <v>281</v>
       </c>
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
@@ -2459,10 +2367,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="E20" s="32"/>
       <c r="F20" s="32"/>
@@ -2480,10 +2388,10 @@
         <v>19</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>346</v>
+        <v>315</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="E21" s="32"/>
       <c r="F21" s="32"/>
@@ -2501,10 +2409,10 @@
         <v>20</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="E22" s="32"/>
       <c r="F22" s="32"/>
@@ -2522,10 +2430,10 @@
         <v>21</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>348</v>
+        <v>317</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>365</v>
+        <v>334</v>
       </c>
       <c r="E23" s="32"/>
       <c r="F23" s="32"/>
@@ -2543,10 +2451,10 @@
         <v>22</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>349</v>
+        <v>318</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="E24" s="32"/>
       <c r="F24" s="32"/>
@@ -2564,10 +2472,10 @@
         <v>23</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>350</v>
+        <v>319</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="E25" s="32"/>
       <c r="F25" s="32"/>
@@ -2585,10 +2493,10 @@
         <v>24</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>351</v>
+        <v>320</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="E26" s="32"/>
       <c r="F26" s="32"/>
@@ -2606,10 +2514,10 @@
         <v>25</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>352</v>
+        <v>321</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="E27" s="32"/>
       <c r="F27" s="32"/>
@@ -2627,10 +2535,10 @@
         <v>26</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="E28" s="32"/>
       <c r="F28" s="32"/>
@@ -2648,10 +2556,10 @@
         <v>27</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>354</v>
+        <v>323</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="E29" s="32"/>
       <c r="F29" s="32"/>
@@ -2669,10 +2577,10 @@
         <v>28</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>355</v>
+        <v>324</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="E30" s="32"/>
       <c r="F30" s="32"/>
@@ -2690,10 +2598,10 @@
         <v>29</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>356</v>
+        <v>325</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="E31" s="32"/>
       <c r="F31" s="32"/>
@@ -2711,10 +2619,10 @@
         <v>30</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>357</v>
+        <v>326</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="E32" s="32"/>
       <c r="F32" s="32"/>
@@ -2732,10 +2640,10 @@
         <v>31</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>358</v>
+        <v>327</v>
       </c>
       <c r="D33" s="32" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="E33" s="32"/>
       <c r="F33" s="32"/>
@@ -2753,10 +2661,10 @@
         <v>32</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="E34" s="32"/>
       <c r="F34" s="32"/>
@@ -2774,10 +2682,10 @@
         <v>33</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="E35" s="32"/>
       <c r="F35" s="32"/>
@@ -2795,10 +2703,10 @@
         <v>34</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>361</v>
+        <v>330</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="E36" s="32"/>
       <c r="F36" s="32"/>
@@ -2816,10 +2724,10 @@
         <v>35</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="E37" s="32"/>
       <c r="F37" s="32"/>
@@ -2837,10 +2745,10 @@
         <v>36</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>363</v>
+        <v>332</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>365</v>
+        <v>334</v>
       </c>
       <c r="E38" s="32"/>
       <c r="F38" s="32"/>
@@ -2858,10 +2766,10 @@
         <v>37</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="D39" s="32" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="E39" s="32"/>
       <c r="F39" s="32">
@@ -2883,10 +2791,10 @@
         <v>38</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>338</v>
+        <v>307</v>
       </c>
       <c r="D40" s="32" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="E40" s="32"/>
       <c r="F40" s="32"/>
@@ -2928,18 +2836,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="165"/>
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="158"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="50" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B2" s="50" t="s">
         <v>154</v>
@@ -2954,11 +2862,11 @@
         <v>177</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5">
-      <c r="A3" s="102">
+      <c r="A3" s="100">
         <v>1</v>
       </c>
       <c r="B3" s="44">
@@ -2967,18 +2875,18 @@
       <c r="C3" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="D3" s="113" t="s">
-        <v>367</v>
+      <c r="D3" s="106" t="s">
+        <v>335</v>
       </c>
       <c r="E3" s="43" t="s">
-        <v>402</v>
+        <v>370</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5">
-      <c r="A4" s="102">
+      <c r="A4" s="100">
         <v>2</v>
       </c>
       <c r="B4" s="44">
@@ -2987,18 +2895,18 @@
       <c r="C4" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="D4" s="113" t="s">
-        <v>368</v>
+      <c r="D4" s="106" t="s">
+        <v>336</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>403</v>
+        <v>371</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5">
-      <c r="A5" s="102">
+      <c r="A5" s="100">
         <v>3</v>
       </c>
       <c r="B5" s="44">
@@ -3007,14 +2915,14 @@
       <c r="C5" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="D5" s="113"/>
+      <c r="D5" s="106"/>
       <c r="E5" s="43"/>
       <c r="F5" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5">
-      <c r="A6" s="102">
+      <c r="A6" s="100">
         <v>4</v>
       </c>
       <c r="B6" s="44">
@@ -3023,18 +2931,18 @@
       <c r="C6" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="D6" s="113" t="s">
-        <v>369</v>
+      <c r="D6" s="106" t="s">
+        <v>337</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>404</v>
+        <v>372</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5">
-      <c r="A7" s="102">
+      <c r="A7" s="100">
         <v>5</v>
       </c>
       <c r="B7" s="44">
@@ -3043,14 +2951,14 @@
       <c r="C7" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="D7" s="113"/>
+      <c r="D7" s="106"/>
       <c r="E7" s="43"/>
       <c r="F7" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5">
-      <c r="A8" s="102">
+      <c r="A8" s="100">
         <v>6</v>
       </c>
       <c r="B8" s="44">
@@ -3059,14 +2967,14 @@
       <c r="C8" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="D8" s="113"/>
+      <c r="D8" s="106"/>
       <c r="E8" s="43"/>
       <c r="F8" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5">
-      <c r="A9" s="102">
+      <c r="A9" s="100">
         <v>7</v>
       </c>
       <c r="B9" s="44">
@@ -3075,14 +2983,14 @@
       <c r="C9" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="D9" s="113"/>
+      <c r="D9" s="106"/>
       <c r="E9" s="43"/>
       <c r="F9" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5">
-      <c r="A10" s="102">
+      <c r="A10" s="100">
         <v>8</v>
       </c>
       <c r="B10" s="44">
@@ -3091,14 +2999,14 @@
       <c r="C10" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="D10" s="113"/>
+      <c r="D10" s="106"/>
       <c r="E10" s="43"/>
       <c r="F10" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5">
-      <c r="A11" s="102">
+      <c r="A11" s="100">
         <v>9</v>
       </c>
       <c r="B11" s="44">
@@ -3107,14 +3015,14 @@
       <c r="C11" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="D11" s="113"/>
+      <c r="D11" s="106"/>
       <c r="E11" s="43"/>
       <c r="F11" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5">
-      <c r="A12" s="102">
+      <c r="A12" s="100">
         <v>10</v>
       </c>
       <c r="B12" s="44">
@@ -3123,18 +3031,18 @@
       <c r="C12" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="D12" s="113" t="s">
-        <v>370</v>
+      <c r="D12" s="106" t="s">
+        <v>338</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>405</v>
+        <v>373</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5">
-      <c r="A13" s="102">
+      <c r="A13" s="100">
         <v>11</v>
       </c>
       <c r="B13" s="44">
@@ -3143,18 +3051,18 @@
       <c r="C13" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="D13" s="113" t="s">
-        <v>371</v>
+      <c r="D13" s="106" t="s">
+        <v>339</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>406</v>
+        <v>374</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5">
-      <c r="A14" s="102">
+      <c r="A14" s="100">
         <v>12</v>
       </c>
       <c r="B14" s="44">
@@ -3163,21 +3071,21 @@
       <c r="C14" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="D14" s="113" t="s">
-        <v>372</v>
+      <c r="D14" s="106" t="s">
+        <v>340</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>407</v>
+        <v>375</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>123</v>
       </c>
       <c r="I14" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5">
-      <c r="A15" s="102">
+      <c r="A15" s="100">
         <v>13</v>
       </c>
       <c r="B15" s="44">
@@ -3186,18 +3094,18 @@
       <c r="C15" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="D15" s="113" t="s">
-        <v>373</v>
+      <c r="D15" s="106" t="s">
+        <v>341</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>408</v>
+        <v>376</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5">
-      <c r="A16" s="102">
+      <c r="A16" s="100">
         <v>14</v>
       </c>
       <c r="B16" s="44">
@@ -3206,18 +3114,18 @@
       <c r="C16" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="D16" s="113" t="s">
-        <v>374</v>
+      <c r="D16" s="106" t="s">
+        <v>342</v>
       </c>
       <c r="E16" s="43" t="s">
-        <v>409</v>
+        <v>377</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="16.5">
-      <c r="A17" s="102">
+      <c r="A17" s="100">
         <v>15</v>
       </c>
       <c r="B17" s="44">
@@ -3226,18 +3134,18 @@
       <c r="C17" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="D17" s="113" t="s">
-        <v>375</v>
+      <c r="D17" s="106" t="s">
+        <v>343</v>
       </c>
       <c r="E17" s="43" t="s">
-        <v>410</v>
+        <v>378</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5">
-      <c r="A18" s="102">
+      <c r="A18" s="100">
         <v>16</v>
       </c>
       <c r="B18" s="44">
@@ -3246,18 +3154,18 @@
       <c r="C18" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="D18" s="113" t="s">
-        <v>376</v>
+      <c r="D18" s="106" t="s">
+        <v>344</v>
       </c>
       <c r="E18" s="43" t="s">
-        <v>411</v>
+        <v>379</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.5">
-      <c r="A19" s="102">
+      <c r="A19" s="100">
         <v>17</v>
       </c>
       <c r="B19" s="44">
@@ -3266,18 +3174,18 @@
       <c r="C19" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="D19" s="113" t="s">
-        <v>377</v>
+      <c r="D19" s="106" t="s">
+        <v>345</v>
       </c>
       <c r="E19" s="43" t="s">
-        <v>412</v>
+        <v>380</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5">
-      <c r="A20" s="102">
+      <c r="A20" s="100">
         <v>18</v>
       </c>
       <c r="B20" s="44">
@@ -3286,18 +3194,18 @@
       <c r="C20" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="D20" s="113" t="s">
-        <v>378</v>
+      <c r="D20" s="106" t="s">
+        <v>346</v>
       </c>
       <c r="E20" s="43" t="s">
-        <v>413</v>
+        <v>381</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5">
-      <c r="A21" s="102">
+      <c r="A21" s="100">
         <v>19</v>
       </c>
       <c r="B21" s="44">
@@ -3306,18 +3214,18 @@
       <c r="C21" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="D21" s="113" t="s">
-        <v>379</v>
+      <c r="D21" s="106" t="s">
+        <v>347</v>
       </c>
       <c r="E21" s="43" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16.5">
-      <c r="A22" s="102">
+      <c r="A22" s="100">
         <v>20</v>
       </c>
       <c r="B22" s="44">
@@ -3326,18 +3234,18 @@
       <c r="C22" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="D22" s="113" t="s">
-        <v>380</v>
+      <c r="D22" s="106" t="s">
+        <v>348</v>
       </c>
       <c r="E22" s="43" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="16.5">
-      <c r="A23" s="102">
+      <c r="A23" s="100">
         <v>21</v>
       </c>
       <c r="B23" s="44">
@@ -3346,18 +3254,18 @@
       <c r="C23" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="D23" s="113" t="s">
-        <v>381</v>
+      <c r="D23" s="106" t="s">
+        <v>349</v>
       </c>
       <c r="E23" s="43" t="s">
-        <v>416</v>
+        <v>384</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="16.5">
-      <c r="A24" s="102">
+      <c r="A24" s="100">
         <v>22</v>
       </c>
       <c r="B24" s="44">
@@ -3366,18 +3274,18 @@
       <c r="C24" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="D24" s="113" t="s">
-        <v>382</v>
+      <c r="D24" s="106" t="s">
+        <v>350</v>
       </c>
       <c r="E24" s="43" t="s">
-        <v>417</v>
+        <v>385</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="16.5">
-      <c r="A25" s="102">
+      <c r="A25" s="100">
         <v>23</v>
       </c>
       <c r="B25" s="44">
@@ -3386,18 +3294,18 @@
       <c r="C25" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="D25" s="113" t="s">
-        <v>383</v>
+      <c r="D25" s="106" t="s">
+        <v>351</v>
       </c>
       <c r="E25" s="43" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="16.5">
-      <c r="A26" s="102">
+      <c r="A26" s="100">
         <v>24</v>
       </c>
       <c r="B26" s="44">
@@ -3406,18 +3314,18 @@
       <c r="C26" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="D26" s="113" t="s">
-        <v>384</v>
+      <c r="D26" s="106" t="s">
+        <v>352</v>
       </c>
       <c r="E26" s="43" t="s">
-        <v>419</v>
+        <v>387</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.5">
-      <c r="A27" s="102">
+      <c r="A27" s="100">
         <v>25</v>
       </c>
       <c r="B27" s="44">
@@ -3426,18 +3334,18 @@
       <c r="C27" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="D27" s="113" t="s">
-        <v>385</v>
+      <c r="D27" s="106" t="s">
+        <v>353</v>
       </c>
       <c r="E27" s="43" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="16.5">
-      <c r="A28" s="102">
+      <c r="A28" s="100">
         <v>26</v>
       </c>
       <c r="B28" s="44">
@@ -3446,18 +3354,18 @@
       <c r="C28" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="D28" s="113" t="s">
-        <v>386</v>
+      <c r="D28" s="106" t="s">
+        <v>354</v>
       </c>
       <c r="E28" s="43" t="s">
-        <v>421</v>
+        <v>389</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="16.5">
-      <c r="A29" s="102">
+      <c r="A29" s="100">
         <v>27</v>
       </c>
       <c r="B29" s="44">
@@ -3466,18 +3374,18 @@
       <c r="C29" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="D29" s="113" t="s">
-        <v>387</v>
+      <c r="D29" s="106" t="s">
+        <v>355</v>
       </c>
       <c r="E29" s="43" t="s">
-        <v>422</v>
+        <v>390</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="16.5">
-      <c r="A30" s="102">
+      <c r="A30" s="100">
         <v>28</v>
       </c>
       <c r="B30" s="44">
@@ -3486,18 +3394,18 @@
       <c r="C30" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="D30" s="113" t="s">
-        <v>388</v>
+      <c r="D30" s="106" t="s">
+        <v>356</v>
       </c>
       <c r="E30" s="43" t="s">
-        <v>423</v>
+        <v>391</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="16.5">
-      <c r="A31" s="102">
+      <c r="A31" s="100">
         <v>29</v>
       </c>
       <c r="B31" s="44">
@@ -3506,18 +3414,18 @@
       <c r="C31" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="D31" s="113" t="s">
-        <v>389</v>
+      <c r="D31" s="106" t="s">
+        <v>357</v>
       </c>
       <c r="E31" s="43" t="s">
-        <v>424</v>
+        <v>392</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="16.5">
-      <c r="A32" s="102">
+      <c r="A32" s="100">
         <v>30</v>
       </c>
       <c r="B32" s="44">
@@ -3526,18 +3434,18 @@
       <c r="C32" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="D32" s="113" t="s">
-        <v>390</v>
+      <c r="D32" s="106" t="s">
+        <v>358</v>
       </c>
       <c r="E32" s="43" t="s">
-        <v>425</v>
+        <v>393</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="16.5">
-      <c r="A33" s="102">
+      <c r="A33" s="100">
         <v>31</v>
       </c>
       <c r="B33" s="44">
@@ -3546,14 +3454,14 @@
       <c r="C33" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="D33" s="113"/>
+      <c r="D33" s="106"/>
       <c r="E33" s="43"/>
       <c r="F33" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="16.5">
-      <c r="A34" s="102">
+      <c r="A34" s="100">
         <v>32</v>
       </c>
       <c r="B34" s="44">
@@ -3562,18 +3470,18 @@
       <c r="C34" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="D34" s="113" t="s">
-        <v>391</v>
+      <c r="D34" s="106" t="s">
+        <v>359</v>
       </c>
       <c r="E34" s="43" t="s">
-        <v>426</v>
+        <v>394</v>
       </c>
       <c r="F34" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="16.5">
-      <c r="A35" s="102">
+      <c r="A35" s="100">
         <v>33</v>
       </c>
       <c r="B35" s="44">
@@ -3582,18 +3490,18 @@
       <c r="C35" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="D35" s="113" t="s">
-        <v>392</v>
+      <c r="D35" s="106" t="s">
+        <v>360</v>
       </c>
       <c r="E35" s="43" t="s">
-        <v>427</v>
+        <v>395</v>
       </c>
       <c r="F35" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="16.5">
-      <c r="A36" s="102">
+      <c r="A36" s="100">
         <v>34</v>
       </c>
       <c r="B36" s="44">
@@ -3602,18 +3510,18 @@
       <c r="C36" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="D36" s="113" t="s">
-        <v>393</v>
+      <c r="D36" s="106" t="s">
+        <v>361</v>
       </c>
       <c r="E36" s="43" t="s">
-        <v>428</v>
+        <v>396</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="16.5">
-      <c r="A37" s="102">
+      <c r="A37" s="100">
         <v>35</v>
       </c>
       <c r="B37" s="44">
@@ -3622,18 +3530,18 @@
       <c r="C37" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="D37" s="113" t="s">
-        <v>394</v>
+      <c r="D37" s="106" t="s">
+        <v>362</v>
       </c>
       <c r="E37" s="43" t="s">
-        <v>429</v>
+        <v>397</v>
       </c>
       <c r="F37" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="16.5">
-      <c r="A38" s="102">
+      <c r="A38" s="100">
         <v>36</v>
       </c>
       <c r="B38" s="44">
@@ -3642,14 +3550,14 @@
       <c r="C38" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="D38" s="113"/>
+      <c r="D38" s="106"/>
       <c r="E38" s="43"/>
       <c r="F38" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="16.5">
-      <c r="A39" s="102">
+      <c r="A39" s="100">
         <v>37</v>
       </c>
       <c r="B39" s="44">
@@ -3658,14 +3566,14 @@
       <c r="C39" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="D39" s="113"/>
+      <c r="D39" s="106"/>
       <c r="E39" s="43"/>
       <c r="F39" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="16.5">
-      <c r="A40" s="102">
+      <c r="A40" s="100">
         <v>38</v>
       </c>
       <c r="B40" s="44">
@@ -3674,14 +3582,14 @@
       <c r="C40" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="D40" s="113"/>
+      <c r="D40" s="106"/>
       <c r="E40" s="43"/>
       <c r="F40" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="16.5">
-      <c r="A41" s="102">
+      <c r="A41" s="100">
         <v>39</v>
       </c>
       <c r="B41" s="44">
@@ -3690,18 +3598,18 @@
       <c r="C41" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="D41" s="113" t="s">
-        <v>395</v>
+      <c r="D41" s="106" t="s">
+        <v>363</v>
       </c>
       <c r="E41" s="43" t="s">
-        <v>430</v>
+        <v>398</v>
       </c>
       <c r="F41" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="16.5">
-      <c r="A42" s="102">
+      <c r="A42" s="100">
         <v>40</v>
       </c>
       <c r="B42" s="44">
@@ -3710,18 +3618,18 @@
       <c r="C42" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="D42" s="113" t="s">
-        <v>396</v>
+      <c r="D42" s="106" t="s">
+        <v>364</v>
       </c>
       <c r="E42" s="43" t="s">
-        <v>431</v>
+        <v>399</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="16.5">
-      <c r="A43" s="102">
+      <c r="A43" s="100">
         <v>41</v>
       </c>
       <c r="B43" s="44">
@@ -3730,14 +3638,14 @@
       <c r="C43" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="D43" s="113"/>
+      <c r="D43" s="106"/>
       <c r="E43" s="43"/>
       <c r="F43" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="16.5">
-      <c r="A44" s="102">
+      <c r="A44" s="100">
         <v>42</v>
       </c>
       <c r="B44" s="44">
@@ -3746,18 +3654,18 @@
       <c r="C44" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="D44" s="113" t="s">
-        <v>397</v>
+      <c r="D44" s="106" t="s">
+        <v>365</v>
       </c>
       <c r="E44" s="43" t="s">
-        <v>432</v>
+        <v>400</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="16.5">
-      <c r="A45" s="102">
+      <c r="A45" s="100">
         <v>43</v>
       </c>
       <c r="B45" s="44">
@@ -3766,18 +3674,18 @@
       <c r="C45" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="D45" s="113" t="s">
-        <v>398</v>
+      <c r="D45" s="106" t="s">
+        <v>366</v>
       </c>
       <c r="E45" s="43" t="s">
-        <v>433</v>
+        <v>401</v>
       </c>
       <c r="F45" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="16.5">
-      <c r="A46" s="102">
+      <c r="A46" s="100">
         <v>44</v>
       </c>
       <c r="B46" s="44">
@@ -3786,18 +3694,18 @@
       <c r="C46" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="D46" s="113" t="s">
-        <v>399</v>
+      <c r="D46" s="106" t="s">
+        <v>367</v>
       </c>
       <c r="E46" s="43" t="s">
-        <v>434</v>
+        <v>402</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="16.5">
-      <c r="A47" s="102">
+      <c r="A47" s="100">
         <v>45</v>
       </c>
       <c r="B47" s="44">
@@ -3806,18 +3714,18 @@
       <c r="C47" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="D47" s="113" t="s">
-        <v>400</v>
+      <c r="D47" s="106" t="s">
+        <v>368</v>
       </c>
       <c r="E47" s="43" t="s">
-        <v>435</v>
+        <v>403</v>
       </c>
       <c r="F47" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="16.5">
-      <c r="A48" s="102">
+      <c r="A48" s="100">
         <v>46</v>
       </c>
       <c r="B48" s="44">
@@ -3826,14 +3734,14 @@
       <c r="C48" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="D48" s="113"/>
+      <c r="D48" s="106"/>
       <c r="E48" s="43"/>
       <c r="F48" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="16.5">
-      <c r="A49" s="102">
+      <c r="A49" s="100">
         <v>47</v>
       </c>
       <c r="B49" s="44">
@@ -3842,14 +3750,14 @@
       <c r="C49" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="D49" s="113"/>
+      <c r="D49" s="106"/>
       <c r="E49" s="43"/>
       <c r="F49" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="16.5">
-      <c r="A50" s="102">
+      <c r="A50" s="100">
         <v>48</v>
       </c>
       <c r="B50" s="44">
@@ -3858,14 +3766,14 @@
       <c r="C50" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="D50" s="113"/>
+      <c r="D50" s="106"/>
       <c r="E50" s="43"/>
       <c r="F50" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="16.5">
-      <c r="A51" s="102">
+      <c r="A51" s="100">
         <v>49</v>
       </c>
       <c r="B51" s="44">
@@ -3874,11 +3782,11 @@
       <c r="C51" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="D51" s="113" t="s">
-        <v>401</v>
+      <c r="D51" s="106" t="s">
+        <v>369</v>
       </c>
       <c r="E51" s="43" t="s">
-        <v>436</v>
+        <v>404</v>
       </c>
       <c r="F51" s="11" t="s">
         <v>123</v>
@@ -4010,18 +3918,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="166" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="174"/>
-      <c r="J1" s="175"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="168"/>
     </row>
     <row r="2" spans="1:10" ht="19.5" customHeight="1">
       <c r="A2" s="50" t="s">
@@ -4063,13 +3971,13 @@
         <v>20001</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D3" s="32" t="s">
         <v>125</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>442</v>
+        <v>407</v>
       </c>
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
@@ -4087,13 +3995,13 @@
         <v>20002</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
@@ -4423,18 +4331,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" customHeight="1">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="169" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="174"/>
-      <c r="J1" s="175"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="168"/>
     </row>
     <row r="2" spans="1:10" ht="19.5" customHeight="1">
       <c r="A2" s="50" t="s">
@@ -4496,7 +4404,7 @@
     <row r="5" spans="1:10">
       <c r="A5" s="33"/>
       <c r="C5" s="76" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4768,10 +4676,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4785,13 +4693,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="23" customFormat="1" ht="21">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="157" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="165"/>
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="158"/>
     </row>
     <row r="2" spans="1:8" s="23" customFormat="1" ht="16.5">
       <c r="A2" s="48" t="s">
@@ -4804,7 +4712,7 @@
         <v>19</v>
       </c>
       <c r="D2" s="48" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="E2" s="49" t="s">
         <v>141</v>
@@ -4821,7 +4729,7 @@
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="82" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="E3" s="29" t="s">
         <v>123</v>
@@ -4838,7 +4746,7 @@
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="82" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="E4" s="29"/>
       <c r="G4" s="88"/>
@@ -4853,7 +4761,7 @@
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="82" t="s">
-        <v>267</v>
+        <v>418</v>
       </c>
       <c r="E5" s="29"/>
       <c r="G5" s="88"/>
@@ -4868,247 +4776,146 @@
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="82" t="s">
-        <v>263</v>
+        <v>419</v>
       </c>
       <c r="E6" s="29"/>
       <c r="G6" s="88"/>
       <c r="H6" s="88"/>
     </row>
     <row r="7" spans="1:8" s="23" customFormat="1" ht="17.25">
-      <c r="A7" s="103">
-        <v>60005</v>
-      </c>
-      <c r="B7" s="104" t="s">
+      <c r="A7" s="73">
+        <v>60007</v>
+      </c>
+      <c r="B7" s="71" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="105"/>
-      <c r="D7" s="106" t="s">
-        <v>264</v>
+      <c r="C7" s="26"/>
+      <c r="D7" s="82" t="s">
+        <v>244</v>
       </c>
       <c r="E7" s="29"/>
       <c r="G7" s="88"/>
       <c r="H7" s="88"/>
     </row>
     <row r="8" spans="1:8" s="23" customFormat="1" ht="17.25">
-      <c r="A8" s="103">
-        <v>60006</v>
-      </c>
-      <c r="B8" s="104" t="s">
+      <c r="A8" s="73">
+        <v>60008</v>
+      </c>
+      <c r="B8" s="71" t="s">
         <v>193</v>
       </c>
-      <c r="C8" s="107"/>
-      <c r="D8" s="106" t="s">
-        <v>264</v>
+      <c r="C8" s="26"/>
+      <c r="D8" s="82" t="s">
+        <v>247</v>
       </c>
       <c r="E8" s="29"/>
       <c r="G8" s="88"/>
       <c r="H8" s="88"/>
     </row>
     <row r="9" spans="1:8" s="23" customFormat="1" ht="17.25">
-      <c r="A9" s="73">
-        <v>60007</v>
-      </c>
-      <c r="B9" s="71" t="s">
-        <v>194</v>
+      <c r="A9" s="91">
+        <v>60015</v>
+      </c>
+      <c r="B9" s="92" t="s">
+        <v>262</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="82" t="s">
-        <v>264</v>
-      </c>
-      <c r="E9" s="29"/>
+        <v>247</v>
+      </c>
+      <c r="E9" s="30"/>
       <c r="G9" s="88"/>
       <c r="H9" s="88"/>
     </row>
     <row r="10" spans="1:8" s="23" customFormat="1" ht="17.25">
       <c r="A10" s="73">
-        <v>60008</v>
-      </c>
-      <c r="B10" s="71" t="s">
-        <v>195</v>
+        <v>60016</v>
+      </c>
+      <c r="B10" s="83" t="s">
+        <v>232</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="82" t="s">
-        <v>281</v>
-      </c>
-      <c r="E10" s="29"/>
+        <v>247</v>
+      </c>
+      <c r="E10" s="30"/>
       <c r="G10" s="88"/>
       <c r="H10" s="88"/>
     </row>
     <row r="11" spans="1:8" s="23" customFormat="1" ht="17.25">
-      <c r="A11" s="73">
-        <v>60009</v>
+      <c r="A11" s="91">
+        <v>60017</v>
       </c>
       <c r="B11" s="71" t="s">
-        <v>440</v>
+        <v>248</v>
       </c>
       <c r="C11" s="26"/>
-      <c r="D11" s="82" t="s">
-        <v>281</v>
-      </c>
-      <c r="E11" s="29"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="30"/>
       <c r="G11" s="88"/>
       <c r="H11" s="88"/>
     </row>
     <row r="12" spans="1:8" s="23" customFormat="1" ht="17.25">
-      <c r="A12" s="73">
-        <v>60010</v>
-      </c>
-      <c r="B12" s="71" t="s">
-        <v>441</v>
-      </c>
+      <c r="A12" s="25"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="26"/>
-      <c r="D12" s="82" t="s">
-        <v>281</v>
-      </c>
-      <c r="E12" s="29"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="30"/>
       <c r="G12" s="88"/>
       <c r="H12" s="88"/>
     </row>
     <row r="13" spans="1:8" s="23" customFormat="1" ht="17.25">
-      <c r="A13" s="73">
-        <v>60011</v>
-      </c>
-      <c r="B13" s="71" t="s">
-        <v>198</v>
-      </c>
+      <c r="A13" s="25"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="26"/>
-      <c r="D13" s="82" t="s">
-        <v>301</v>
-      </c>
-      <c r="E13" s="29"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="30"/>
       <c r="G13" s="88"/>
       <c r="H13" s="88"/>
     </row>
     <row r="14" spans="1:8" s="23" customFormat="1" ht="17.25">
-      <c r="A14" s="73">
-        <v>60012</v>
-      </c>
-      <c r="B14" s="71" t="s">
-        <v>199</v>
-      </c>
+      <c r="A14" s="25"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="26"/>
-      <c r="D14" s="82" t="s">
-        <v>302</v>
-      </c>
-      <c r="E14" s="29"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="30"/>
       <c r="G14" s="88"/>
       <c r="H14" s="88"/>
     </row>
     <row r="15" spans="1:8" s="23" customFormat="1" ht="17.25">
-      <c r="A15" s="73">
-        <v>60013</v>
-      </c>
-      <c r="B15" s="71" t="s">
-        <v>200</v>
-      </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="82" t="s">
-        <v>268</v>
-      </c>
-      <c r="E15" s="29"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="30"/>
     </row>
     <row r="16" spans="1:8" s="23" customFormat="1" ht="17.25">
-      <c r="A16" s="73">
-        <v>60014</v>
-      </c>
-      <c r="B16" s="71" t="s">
-        <v>201</v>
-      </c>
+      <c r="A16" s="25"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="26"/>
-      <c r="D16" s="82" t="s">
-        <v>269</v>
-      </c>
+      <c r="D16" s="28"/>
       <c r="E16" s="30"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-    </row>
-    <row r="17" spans="1:8" s="23" customFormat="1" ht="17.25">
-      <c r="A17" s="73">
-        <v>60016</v>
-      </c>
-      <c r="B17" s="71" t="s">
-        <v>439</v>
-      </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="82" t="s">
-        <v>270</v>
-      </c>
+    </row>
+    <row r="17" spans="1:5" s="23" customFormat="1" ht="17.25">
+      <c r="A17" s="25"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="28"/>
       <c r="E17" s="30"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-    </row>
-    <row r="18" spans="1:8" s="23" customFormat="1" ht="17.25">
-      <c r="A18" s="73"/>
-      <c r="B18" s="71"/>
+    </row>
+    <row r="18" spans="1:5" s="23" customFormat="1" ht="17.25">
+      <c r="A18" s="25"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="26"/>
       <c r="D18" s="28"/>
       <c r="E18" s="30"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="88"/>
-    </row>
-    <row r="19" spans="1:8" s="23" customFormat="1" ht="17.25">
+    </row>
+    <row r="19" spans="1:5" s="23" customFormat="1" ht="17.25">
       <c r="A19" s="25"/>
       <c r="B19" s="15"/>
       <c r="C19" s="26"/>
       <c r="D19" s="28"/>
       <c r="E19" s="30"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="88"/>
-    </row>
-    <row r="20" spans="1:8" s="23" customFormat="1" ht="17.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="30"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="88"/>
-    </row>
-    <row r="21" spans="1:8" s="23" customFormat="1" ht="17.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="30"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-    </row>
-    <row r="22" spans="1:8" s="23" customFormat="1" ht="17.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="30"/>
-    </row>
-    <row r="23" spans="1:8" s="23" customFormat="1" ht="17.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="30"/>
-    </row>
-    <row r="24" spans="1:8" s="23" customFormat="1" ht="17.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="30"/>
-    </row>
-    <row r="25" spans="1:8" s="23" customFormat="1" ht="17.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="30"/>
-    </row>
-    <row r="26" spans="1:8" s="23" customFormat="1" ht="17.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5124,8 +4931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -5142,17 +4949,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="159" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
-      <c r="I1" s="168"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="161"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="50" t="s">
@@ -5188,7 +4995,7 @@
         <v>60001</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>125</v>
@@ -5198,63 +5005,63 @@
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="10" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="J3" s="100"/>
+        <v>250</v>
+      </c>
+      <c r="J3" s="98"/>
     </row>
     <row r="4" spans="1:10" ht="33">
       <c r="A4" s="17">
         <v>60002</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
       <c r="H4" s="77" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="J4" s="100"/>
+        <v>250</v>
+      </c>
+      <c r="J4" s="98"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="17">
         <v>60003</v>
       </c>
       <c r="B5" s="78" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="42" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="I5" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="J5" s="100"/>
+      <c r="J5" s="98"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="17">
         <v>60004</v>
       </c>
       <c r="B6" s="85" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="C6" s="84" t="s">
         <v>125</v>
@@ -5265,16 +5072,16 @@
       <c r="G6" s="87"/>
       <c r="H6" s="85"/>
       <c r="I6" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="J6" s="100"/>
+        <v>255</v>
+      </c>
+      <c r="J6" s="98"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="17">
         <v>60005</v>
       </c>
       <c r="B7" s="85" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="C7" s="84" t="s">
         <v>125</v>
@@ -5285,108 +5092,108 @@
       <c r="G7" s="87"/>
       <c r="H7" s="85"/>
       <c r="I7" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="J7" s="100"/>
+        <v>255</v>
+      </c>
+      <c r="J7" s="98"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="17">
         <v>60006</v>
       </c>
       <c r="B8" s="78" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>125</v>
       </c>
       <c r="D8" s="78" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="78" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="J8" s="100"/>
+        <v>255</v>
+      </c>
+      <c r="J8" s="98"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="17">
         <v>60007</v>
       </c>
-      <c r="B9" s="117" t="s">
-        <v>230</v>
-      </c>
-      <c r="C9" s="116" t="s">
+      <c r="B9" s="110" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="D9" s="118"/>
-      <c r="E9" s="118"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="116" t="s">
+      <c r="D9" s="111"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="109" t="s">
         <v>165</v>
       </c>
-      <c r="J9" s="100"/>
+      <c r="J9" s="98"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="17">
         <v>60008</v>
       </c>
-      <c r="B10" s="117" t="s">
-        <v>232</v>
-      </c>
-      <c r="C10" s="120" t="s">
-        <v>221</v>
-      </c>
-      <c r="D10" s="118"/>
-      <c r="E10" s="118"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="117" t="s">
-        <v>296</v>
-      </c>
-      <c r="I10" s="116" t="s">
-        <v>279</v>
-      </c>
-      <c r="J10" s="100"/>
+      <c r="B10" s="110" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" s="113" t="s">
+        <v>213</v>
+      </c>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="110" t="s">
+        <v>269</v>
+      </c>
+      <c r="I10" s="109" t="s">
+        <v>255</v>
+      </c>
+      <c r="J10" s="98"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="17">
         <v>60009</v>
       </c>
       <c r="B11" s="78" t="s">
-        <v>437</v>
+        <v>405</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="78" t="s">
-        <v>298</v>
+        <v>420</v>
       </c>
       <c r="I11" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="J11" s="100"/>
+      <c r="J11" s="98"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="108"/>
-      <c r="B12" s="109"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="112"/>
+      <c r="A12" s="101"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5427,15 +5234,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="157" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
     </row>
     <row r="2" spans="1:12" ht="18.75">
       <c r="A2" s="52" t="s">
@@ -5463,7 +5270,7 @@
         <v>117</v>
       </c>
       <c r="K2" s="79" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="L2" s="79" t="s">
         <v>0</v>
@@ -5474,27 +5281,27 @@
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
       <c r="F3" s="71" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>165</v>
       </c>
       <c r="J3" s="80" t="s">
-        <v>252</v>
-      </c>
-      <c r="K3" s="170" t="s">
-        <v>254</v>
+        <v>233</v>
+      </c>
+      <c r="K3" s="163" t="s">
+        <v>235</v>
       </c>
       <c r="L3" s="81" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="49.5">
@@ -5502,25 +5309,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="71" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="G4" s="58" t="s">
         <v>165</v>
       </c>
       <c r="J4" s="80" t="s">
-        <v>253</v>
-      </c>
-      <c r="K4" s="171"/>
+        <v>234</v>
+      </c>
+      <c r="K4" s="164"/>
       <c r="L4" s="81" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="34.15" customHeight="1">
@@ -5528,23 +5335,23 @@
         <v>3</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" s="71" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G5" s="14"/>
       <c r="J5" s="80" t="s">
-        <v>305</v>
-      </c>
-      <c r="K5" s="171"/>
+        <v>274</v>
+      </c>
+      <c r="K5" s="164"/>
       <c r="L5" s="81" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="33">
@@ -5552,23 +5359,23 @@
         <v>4</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="21"/>
       <c r="F6" s="71" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G6" s="14"/>
       <c r="J6" s="80" t="s">
-        <v>247</v>
-      </c>
-      <c r="K6" s="171"/>
+        <v>228</v>
+      </c>
+      <c r="K6" s="164"/>
       <c r="L6" s="81" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="115.5">
@@ -5576,25 +5383,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="D7" s="75" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="71" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="G7" s="14"/>
       <c r="J7" s="80" t="s">
-        <v>259</v>
-      </c>
-      <c r="K7" s="171"/>
+        <v>240</v>
+      </c>
+      <c r="K7" s="164"/>
       <c r="L7" s="81" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="88" customFormat="1" ht="17.25">
@@ -5602,53 +5409,53 @@
         <v>6</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="D8" s="96">
+        <v>267</v>
+      </c>
+      <c r="D8" s="94">
         <v>5</v>
       </c>
-      <c r="E8" s="96"/>
-      <c r="F8" s="99" t="s">
-        <v>295</v>
-      </c>
-      <c r="G8" s="97"/>
-      <c r="J8" s="98" t="s">
-        <v>294</v>
-      </c>
-      <c r="K8" s="172"/>
-      <c r="L8" s="98"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="97" t="s">
+        <v>268</v>
+      </c>
+      <c r="G8" s="95"/>
+      <c r="J8" s="96" t="s">
+        <v>267</v>
+      </c>
+      <c r="K8" s="165"/>
+      <c r="L8" s="96"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="114"/>
-      <c r="B9" s="115"/>
+      <c r="A9" s="107"/>
+      <c r="B9" s="108"/>
       <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="114"/>
-      <c r="B10" s="115"/>
+      <c r="A10" s="107"/>
+      <c r="B10" s="108"/>
       <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="114"/>
-      <c r="B11" s="115"/>
+      <c r="A11" s="107"/>
+      <c r="B11" s="108"/>
       <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="114"/>
-      <c r="B12" s="115"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="108"/>
       <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="114"/>
-      <c r="B13" s="115"/>
+      <c r="A13" s="107"/>
+      <c r="B13" s="108"/>
       <c r="G13" s="54"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="114"/>
-      <c r="B14" s="115"/>
+      <c r="A14" s="107"/>
+      <c r="B14" s="108"/>
       <c r="G14" s="54"/>
     </row>
   </sheetData>
@@ -5665,7 +5472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -5682,15 +5489,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="159" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="168"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="161"/>
     </row>
     <row r="2" spans="1:7" ht="20.25" customHeight="1">
       <c r="A2" s="52" t="s">
@@ -5709,7 +5516,7 @@
         <v>158</v>
       </c>
       <c r="F2" s="52" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="G2" s="53" t="s">
         <v>141</v>
@@ -5720,7 +5527,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>125</v>
@@ -5739,7 +5546,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>125</v>
@@ -5756,7 +5563,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>125</v>
@@ -5766,7 +5573,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="G5" s="47"/>
     </row>
@@ -5775,17 +5582,17 @@
         <v>4</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22">
         <v>1</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="G6" s="47"/>
     </row>
@@ -5835,35 +5642,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21">
-      <c r="A1" s="166" t="s">
-        <v>225</v>
-      </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157"/>
-      <c r="K1" s="158"/>
+      <c r="A1" s="159" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="150"/>
+      <c r="K1" s="151"/>
     </row>
     <row r="2" spans="1:13" ht="30">
       <c r="A2" s="50" t="s">
         <v>126</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D2" s="50" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="50" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="F2" s="50" t="s">
         <v>3</v>
@@ -5881,7 +5688,7 @@
         <v>5</v>
       </c>
       <c r="K2" s="51" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -5892,13 +5699,13 @@
         <v>10001</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
@@ -5914,10 +5721,10 @@
         <v>10002</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E4" s="32"/>
       <c r="F4" s="32"/>
@@ -5925,8 +5732,8 @@
       <c r="H4" s="32"/>
       <c r="I4" s="32"/>
       <c r="J4" s="32"/>
-      <c r="L4" s="121"/>
-      <c r="M4" s="109"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="102"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="32">
@@ -5936,10 +5743,10 @@
         <v>10003</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E5" s="32"/>
       <c r="F5" s="32"/>
@@ -5947,8 +5754,8 @@
       <c r="H5" s="32"/>
       <c r="I5" s="32"/>
       <c r="J5" s="32"/>
-      <c r="L5" s="121"/>
-      <c r="M5" s="109"/>
+      <c r="L5" s="114"/>
+      <c r="M5" s="102"/>
     </row>
     <row r="6" spans="1:13" ht="17.25" customHeight="1">
       <c r="A6" s="32">
@@ -5958,10 +5765,10 @@
         <v>10004</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>311</v>
+        <v>280</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="E6" s="32"/>
       <c r="F6" s="32"/>
@@ -5969,10 +5776,10 @@
       <c r="H6" s="32"/>
       <c r="I6" s="32"/>
       <c r="J6" s="57" t="s">
-        <v>316</v>
-      </c>
-      <c r="L6" s="121"/>
-      <c r="M6" s="109"/>
+        <v>285</v>
+      </c>
+      <c r="L6" s="114"/>
+      <c r="M6" s="102"/>
     </row>
     <row r="7" spans="1:13" s="88" customFormat="1" ht="17.25" customHeight="1">
       <c r="A7" s="32">
@@ -5982,10 +5789,10 @@
         <v>10005</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="E7" s="32"/>
       <c r="F7" s="32"/>
@@ -5993,8 +5800,8 @@
       <c r="H7" s="32"/>
       <c r="I7" s="32"/>
       <c r="J7" s="57"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="109"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="102"/>
     </row>
     <row r="8" spans="1:13" ht="17.25">
       <c r="A8" s="32">
@@ -6004,10 +5811,10 @@
         <v>10006</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="E8" s="32"/>
       <c r="F8" s="32"/>
@@ -6015,8 +5822,8 @@
       <c r="H8" s="32"/>
       <c r="I8" s="32"/>
       <c r="J8" s="32"/>
-      <c r="L8" s="121"/>
-      <c r="M8" s="109"/>
+      <c r="L8" s="114"/>
+      <c r="M8" s="102"/>
     </row>
     <row r="9" spans="1:13" s="88" customFormat="1" ht="17.25">
       <c r="A9" s="32">
@@ -6026,10 +5833,10 @@
         <v>10007</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>438</v>
+        <v>406</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="32"/>
@@ -6037,8 +5844,8 @@
       <c r="H9" s="32"/>
       <c r="I9" s="32"/>
       <c r="J9" s="32"/>
-      <c r="L9" s="121"/>
-      <c r="M9" s="109"/>
+      <c r="L9" s="114"/>
+      <c r="M9" s="102"/>
     </row>
     <row r="10" spans="1:13" s="88" customFormat="1" ht="17.25" customHeight="1">
       <c r="A10" s="32">
@@ -6048,10 +5855,10 @@
         <v>10008</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>317</v>
+        <v>286</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="E10" s="32"/>
       <c r="F10" s="32"/>
@@ -6059,8 +5866,8 @@
       <c r="H10" s="32"/>
       <c r="I10" s="32"/>
       <c r="J10" s="57"/>
-      <c r="L10" s="121"/>
-      <c r="M10" s="109"/>
+      <c r="L10" s="114"/>
+      <c r="M10" s="102"/>
     </row>
     <row r="11" spans="1:13" s="88" customFormat="1" ht="17.25" customHeight="1">
       <c r="A11" s="32">
@@ -6070,10 +5877,10 @@
         <v>10009</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="E11" s="32"/>
       <c r="F11" s="32"/>
@@ -6081,8 +5888,8 @@
       <c r="H11" s="32"/>
       <c r="I11" s="32"/>
       <c r="J11" s="57"/>
-      <c r="L11" s="121"/>
-      <c r="M11" s="109"/>
+      <c r="L11" s="114"/>
+      <c r="M11" s="102"/>
     </row>
     <row r="12" spans="1:13" ht="17.25">
       <c r="A12" s="32">
@@ -6092,10 +5899,10 @@
         <v>10010</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>321</v>
+        <v>290</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="E12" s="32"/>
       <c r="F12" s="32"/>
@@ -6103,8 +5910,8 @@
       <c r="H12" s="32"/>
       <c r="I12" s="32"/>
       <c r="J12" s="32"/>
-      <c r="L12" s="121"/>
-      <c r="M12" s="109"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="102"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="32">
@@ -6114,10 +5921,10 @@
         <v>10011</v>
       </c>
       <c r="C13" s="90" t="s">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="E13" s="32"/>
       <c r="F13" s="32"/>
@@ -6125,8 +5932,8 @@
       <c r="H13" s="32"/>
       <c r="I13" s="32"/>
       <c r="J13" s="32"/>
-      <c r="L13" s="121"/>
-      <c r="M13" s="109"/>
+      <c r="L13" s="114"/>
+      <c r="M13" s="102"/>
     </row>
     <row r="14" spans="1:13" ht="17.25">
       <c r="A14" s="32">
@@ -6136,10 +5943,10 @@
         <v>10012</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>323</v>
+        <v>292</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>312</v>
+        <v>281</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="32"/>
@@ -6147,8 +5954,8 @@
       <c r="H14" s="32"/>
       <c r="I14" s="32"/>
       <c r="J14" s="32"/>
-      <c r="L14" s="121"/>
-      <c r="M14" s="109"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="102"/>
     </row>
     <row r="15" spans="1:13" ht="17.25">
       <c r="A15" s="32">
@@ -6158,10 +5965,10 @@
         <v>10013</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>324</v>
+        <v>293</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>312</v>
+        <v>281</v>
       </c>
       <c r="E15" s="32"/>
       <c r="F15" s="32"/>
@@ -6169,8 +5976,8 @@
       <c r="H15" s="32"/>
       <c r="I15" s="32"/>
       <c r="J15" s="32"/>
-      <c r="L15" s="121"/>
-      <c r="M15" s="109"/>
+      <c r="L15" s="114"/>
+      <c r="M15" s="102"/>
     </row>
     <row r="16" spans="1:13" ht="17.25">
       <c r="A16" s="32">
@@ -6180,10 +5987,10 @@
         <v>10014</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>325</v>
+        <v>294</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>312</v>
+        <v>281</v>
       </c>
       <c r="E16" s="32"/>
       <c r="F16" s="32"/>
@@ -6191,8 +5998,8 @@
       <c r="H16" s="32"/>
       <c r="I16" s="32"/>
       <c r="J16" s="32"/>
-      <c r="L16" s="121"/>
-      <c r="M16" s="109"/>
+      <c r="L16" s="114"/>
+      <c r="M16" s="102"/>
     </row>
     <row r="17" spans="1:13" ht="17.25">
       <c r="A17" s="32">
@@ -6202,10 +6009,10 @@
         <v>10015</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>326</v>
+        <v>295</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>312</v>
+        <v>281</v>
       </c>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
@@ -6213,8 +6020,8 @@
       <c r="H17" s="32"/>
       <c r="I17" s="32"/>
       <c r="J17" s="32"/>
-      <c r="L17" s="121"/>
-      <c r="M17" s="109"/>
+      <c r="L17" s="114"/>
+      <c r="M17" s="102"/>
     </row>
     <row r="18" spans="1:13" ht="17.25">
       <c r="A18" s="32"/>
@@ -6227,8 +6034,8 @@
       <c r="H18" s="32"/>
       <c r="I18" s="32"/>
       <c r="J18" s="32"/>
-      <c r="L18" s="109"/>
-      <c r="M18" s="109"/>
+      <c r="L18" s="102"/>
+      <c r="M18" s="102"/>
     </row>
     <row r="19" spans="1:13" ht="17.25">
       <c r="A19" s="32"/>
@@ -6312,21 +6119,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_x4f7f__x7528__x8aaa__x660e_ xmlns="2c4afa66-cfaf-47b2-bbae-a9fa2171cafe" xsi:nil="true"/>
     <_x8cc7__x6599__x593e__x8aaa__x660e_ xmlns="2c4afa66-cfaf-47b2-bbae-a9fa2171cafe" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6466,6 +6273,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A54467A-3F6D-4C2E-B9B5-9AE15DAE2C4C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{278CBAAA-EA54-4936-AF22-F085A28940BD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -6477,14 +6292,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A54467A-3F6D-4C2E-B9B5-9AE15DAE2C4C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
